--- a/Code/Results/Cases/Case_3_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9328260013687384</v>
+        <v>0.5956079201923501</v>
       </c>
       <c r="C2">
-        <v>0.1359541169620506</v>
+        <v>0.2455862192536173</v>
       </c>
       <c r="D2">
-        <v>0.1182167459467607</v>
+        <v>0.2065920950532956</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.680980760222667</v>
+        <v>1.532975551870052</v>
       </c>
       <c r="G2">
-        <v>0.4125352167043275</v>
+        <v>0.8706740504681534</v>
       </c>
       <c r="H2">
-        <v>0.3644826226984677</v>
+        <v>0.9445565500898638</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09190050787963067</v>
+        <v>0.2491874490776933</v>
       </c>
       <c r="K2">
-        <v>0.7450168991666004</v>
+        <v>0.2616300493527461</v>
       </c>
       <c r="L2">
-        <v>0.1755109326658868</v>
+        <v>0.3106383837540747</v>
       </c>
       <c r="M2">
-        <v>0.2096006857776587</v>
+        <v>0.2034796534955134</v>
       </c>
       <c r="N2">
-        <v>0.9915474056088467</v>
+        <v>2.075828692543366</v>
       </c>
       <c r="O2">
-        <v>1.584273145342493</v>
+        <v>3.660590144332687</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8140184447937884</v>
+        <v>0.562826514233393</v>
       </c>
       <c r="C3">
-        <v>0.1365613476590006</v>
+        <v>0.2460604446407544</v>
       </c>
       <c r="D3">
-        <v>0.1092902163882243</v>
+        <v>0.2051155706499586</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6713825728864933</v>
+        <v>1.539487355752811</v>
       </c>
       <c r="G3">
-        <v>0.4078159994981903</v>
+        <v>0.8752409111624928</v>
       </c>
       <c r="H3">
-        <v>0.3674342444848691</v>
+        <v>0.9500747939030347</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09382256635877617</v>
+        <v>0.2507104551491839</v>
       </c>
       <c r="K3">
-        <v>0.6492722282007861</v>
+        <v>0.2326434445962917</v>
       </c>
       <c r="L3">
-        <v>0.1622241281274484</v>
+        <v>0.3084489433906228</v>
       </c>
       <c r="M3">
-        <v>0.1852288425423119</v>
+        <v>0.1973728997168287</v>
       </c>
       <c r="N3">
-        <v>1.03064908606583</v>
+        <v>2.093403922165312</v>
       </c>
       <c r="O3">
-        <v>1.580124152656055</v>
+        <v>3.681587093869098</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7412552271718766</v>
+        <v>0.5428751847376247</v>
       </c>
       <c r="C4">
-        <v>0.136981076408496</v>
+        <v>0.246380711735668</v>
       </c>
       <c r="D4">
-        <v>0.1038937405530334</v>
+        <v>0.2042805767309446</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666455572659153</v>
+        <v>1.544104475233055</v>
       </c>
       <c r="G4">
-        <v>0.4056294710513768</v>
+        <v>0.8784559800908625</v>
       </c>
       <c r="H4">
-        <v>0.3696975637739897</v>
+        <v>0.9537694961650374</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09508852704397697</v>
+        <v>0.2517080791732909</v>
       </c>
       <c r="K4">
-        <v>0.5904540927797512</v>
+        <v>0.2148425740988671</v>
       </c>
       <c r="L4">
-        <v>0.1541959235845525</v>
+        <v>0.3072106460167063</v>
       </c>
       <c r="M4">
-        <v>0.1703465217074083</v>
+        <v>0.1936947871967689</v>
       </c>
       <c r="N4">
-        <v>1.055663055676995</v>
+        <v>2.104756655322593</v>
       </c>
       <c r="O4">
-        <v>1.58001975814895</v>
+        <v>3.695983809126318</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7116426305303207</v>
+        <v>0.5347899738532078</v>
       </c>
       <c r="C5">
-        <v>0.1371638473398207</v>
+        <v>0.2465185645101258</v>
       </c>
       <c r="D5">
-        <v>0.1017150733304959</v>
+        <v>0.2039584010170046</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6646832267209533</v>
+        <v>1.546141844823403</v>
       </c>
       <c r="G5">
-        <v>0.4049109560756321</v>
+        <v>0.8798695882697345</v>
       </c>
       <c r="H5">
-        <v>0.3707305701797239</v>
+        <v>0.9553523021254762</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09562569878140437</v>
+        <v>0.2521303594931048</v>
       </c>
       <c r="K5">
-        <v>0.5664724308412872</v>
+        <v>0.2075883394501261</v>
       </c>
       <c r="L5">
-        <v>0.1509556544815283</v>
+        <v>0.3067328120792467</v>
       </c>
       <c r="M5">
-        <v>0.1643007209189236</v>
+        <v>0.192214057182948</v>
       </c>
       <c r="N5">
-        <v>1.066104860694188</v>
+        <v>2.109524260890692</v>
       </c>
       <c r="O5">
-        <v>1.580572488673397</v>
+        <v>3.702229345567744</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7067276240940146</v>
+        <v>0.5334501767434574</v>
       </c>
       <c r="C6">
-        <v>0.137194902921383</v>
+        <v>0.2465418990290118</v>
       </c>
       <c r="D6">
-        <v>0.1013545192510676</v>
+        <v>0.2039059992040322</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6644029355116814</v>
+        <v>1.546489568923178</v>
       </c>
       <c r="G6">
-        <v>0.40480188722929</v>
+        <v>0.8801105671671579</v>
       </c>
       <c r="H6">
-        <v>0.3709087076549977</v>
+        <v>0.9556197911030466</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09571617272971977</v>
+        <v>0.2522014302745674</v>
       </c>
       <c r="K6">
-        <v>0.5624893770588955</v>
+        <v>0.2063837801976263</v>
       </c>
       <c r="L6">
-        <v>0.1504194606928593</v>
+        <v>0.3066550892510804</v>
       </c>
       <c r="M6">
-        <v>0.1632979094577642</v>
+        <v>0.1919692828976167</v>
       </c>
       <c r="N6">
-        <v>1.067853592410768</v>
+        <v>2.110324453426021</v>
       </c>
       <c r="O6">
-        <v>1.580699679117359</v>
+        <v>3.703289301088304</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7408557131005011</v>
+        <v>0.5427659611291631</v>
       </c>
       <c r="C7">
-        <v>0.1369834939130214</v>
+        <v>0.24638254110668</v>
       </c>
       <c r="D7">
-        <v>0.1038642765486344</v>
+        <v>0.2042761583908828</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6664307266161345</v>
+        <v>1.544131320534973</v>
       </c>
       <c r="G7">
-        <v>0.405619090544171</v>
+        <v>0.8784746255511422</v>
       </c>
       <c r="H7">
-        <v>0.369711050616722</v>
+        <v>0.9537905297638929</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09509568573910521</v>
+        <v>0.2517137104261913</v>
       </c>
       <c r="K7">
-        <v>0.5901307260734683</v>
+        <v>0.2147447412263404</v>
       </c>
       <c r="L7">
-        <v>0.1541520992808714</v>
+        <v>0.3072040931800188</v>
       </c>
       <c r="M7">
-        <v>0.1702649118230291</v>
+        <v>0.1936747439287991</v>
       </c>
       <c r="N7">
-        <v>1.055802877391923</v>
+        <v>2.104820380784471</v>
       </c>
       <c r="O7">
-        <v>1.580024826862982</v>
+        <v>3.696066504454592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8918180485684104</v>
+        <v>0.5842686583033014</v>
       </c>
       <c r="C8">
-        <v>0.1361537202450087</v>
+        <v>0.2457437100421167</v>
       </c>
       <c r="D8">
-        <v>0.115120859546245</v>
+        <v>0.2060681807378657</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6774661067990735</v>
+        <v>1.535092524400369</v>
       </c>
       <c r="G8">
-        <v>0.4107565741197519</v>
+        <v>0.8721634562723608</v>
       </c>
       <c r="H8">
-        <v>0.3654050594814251</v>
+        <v>0.9463957019019915</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09254524340984993</v>
+        <v>0.2496996271776268</v>
       </c>
       <c r="K8">
-        <v>0.7120072775314981</v>
+        <v>0.2516363853738994</v>
       </c>
       <c r="L8">
-        <v>0.1709018142512164</v>
+        <v>0.3098615298265415</v>
       </c>
       <c r="M8">
-        <v>0.2011791340533442</v>
+        <v>0.2013593082955296</v>
       </c>
       <c r="N8">
-        <v>1.004818302496722</v>
+        <v>2.081772152911479</v>
       </c>
       <c r="O8">
-        <v>1.582323788024965</v>
+        <v>3.667517894144169</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.189696219468686</v>
+        <v>0.6670293794311135</v>
       </c>
       <c r="C9">
-        <v>0.134901580287071</v>
+        <v>0.244720646752107</v>
       </c>
       <c r="D9">
-        <v>0.1379036769345703</v>
+        <v>0.2101469313255677</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7071305949356486</v>
+        <v>1.522267735804775</v>
       </c>
       <c r="G9">
-        <v>0.4267706027249716</v>
+        <v>0.8630446920546717</v>
       </c>
       <c r="H9">
-        <v>0.360668137052663</v>
+        <v>0.9343210875766488</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08823841706382574</v>
+        <v>0.2462446714123487</v>
       </c>
       <c r="K9">
-        <v>0.9510203463946425</v>
+        <v>0.3239380382256911</v>
       </c>
       <c r="L9">
-        <v>0.2048462684957144</v>
+        <v>0.3159092305918136</v>
       </c>
       <c r="M9">
-        <v>0.262540406207016</v>
+        <v>0.2169894876123024</v>
       </c>
       <c r="N9">
-        <v>0.9130187826804992</v>
+        <v>2.041025083479051</v>
       </c>
       <c r="O9">
-        <v>1.607116880557726</v>
+        <v>3.623453433272132</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.410236464474707</v>
+        <v>0.728641263811113</v>
       </c>
       <c r="C10">
-        <v>0.134214801776487</v>
+        <v>0.2441075074170058</v>
       </c>
       <c r="D10">
-        <v>0.1551319885385141</v>
+        <v>0.2134835712189158</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7343376505209918</v>
+        <v>1.515820197925315</v>
       </c>
       <c r="G10">
-        <v>0.442590245964837</v>
+        <v>0.8583266214779286</v>
       </c>
       <c r="H10">
-        <v>0.3596351043587731</v>
+        <v>0.9269223586865252</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08551735584010878</v>
+        <v>0.2440062128045462</v>
       </c>
       <c r="K10">
-        <v>1.127023575740424</v>
+        <v>0.3770113655256182</v>
       </c>
       <c r="L10">
-        <v>0.2305552299729641</v>
+        <v>0.3208566818385208</v>
       </c>
       <c r="M10">
-        <v>0.3082045721900712</v>
+        <v>0.2288077784641658</v>
       </c>
       <c r="N10">
-        <v>0.8508525408622631</v>
+        <v>2.013794095758238</v>
       </c>
       <c r="O10">
-        <v>1.639009996976085</v>
+        <v>3.598322457527388</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.511066912369301</v>
+        <v>0.7568394469179793</v>
       </c>
       <c r="C11">
-        <v>0.1339540875531426</v>
+        <v>0.2438583319176857</v>
       </c>
       <c r="D11">
-        <v>0.163089437304464</v>
+        <v>0.2150744543226324</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7480115623633381</v>
+        <v>1.51353042439348</v>
       </c>
       <c r="G11">
-        <v>0.4507684175557074</v>
+        <v>0.8566096376803927</v>
       </c>
       <c r="H11">
-        <v>0.3597402817205051</v>
+        <v>0.9238747902720803</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08438027368837808</v>
+        <v>0.2430526485011413</v>
       </c>
       <c r="K11">
-        <v>1.207272293870687</v>
+        <v>0.4011415679976267</v>
       </c>
       <c r="L11">
-        <v>0.2424416614754676</v>
+        <v>0.3232157173516157</v>
       </c>
       <c r="M11">
-        <v>0.3291358838163276</v>
+        <v>0.2342555004340383</v>
       </c>
       <c r="N11">
-        <v>0.8237855442920061</v>
+        <v>2.001992032005631</v>
       </c>
       <c r="O11">
-        <v>1.656795068284879</v>
+        <v>3.588457744848029</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.549332896787462</v>
+        <v>0.7675412521577982</v>
       </c>
       <c r="C12">
-        <v>0.1338628945882618</v>
+        <v>0.2437682270160124</v>
       </c>
       <c r="D12">
-        <v>0.1661211461621122</v>
+        <v>0.2156872993926271</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7533867061995778</v>
+        <v>1.512755618248327</v>
       </c>
       <c r="G12">
-        <v>0.4540153398071283</v>
+        <v>0.8560211117459176</v>
       </c>
       <c r="H12">
-        <v>0.3598666742162777</v>
+        <v>0.922766390740577</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08396458264429185</v>
+        <v>0.2427008390015715</v>
       </c>
       <c r="K12">
-        <v>1.237694770580077</v>
+        <v>0.4102766995118259</v>
       </c>
       <c r="L12">
-        <v>0.2469722728824166</v>
+        <v>0.324124499593097</v>
       </c>
       <c r="M12">
-        <v>0.3370874654647764</v>
+        <v>0.2363285474001913</v>
       </c>
       <c r="N12">
-        <v>0.8137164775154631</v>
+        <v>1.997606998556094</v>
       </c>
       <c r="O12">
-        <v>1.664027954036527</v>
+        <v>3.584947235036594</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.541087728267087</v>
+        <v>0.765235382231964</v>
       </c>
       <c r="C13">
-        <v>0.1338821979103599</v>
+        <v>0.2437874439822778</v>
       </c>
       <c r="D13">
-        <v>0.1654673769243118</v>
+        <v>0.2155548505800908</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7522201305182392</v>
+        <v>1.512918385820292</v>
       </c>
       <c r="G13">
-        <v>0.4533092381771269</v>
+        <v>0.8561451202184287</v>
       </c>
       <c r="H13">
-        <v>0.3598355394535133</v>
+        <v>0.9230030757891967</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0840534398200532</v>
+        <v>0.242776194890336</v>
       </c>
       <c r="K13">
-        <v>1.23114110641373</v>
+        <v>0.4083094035789543</v>
       </c>
       <c r="L13">
-        <v>0.2459951810241421</v>
+        <v>0.3239280911554516</v>
       </c>
       <c r="M13">
-        <v>0.3353737802100767</v>
+        <v>0.2358816326098534</v>
       </c>
       <c r="N13">
-        <v>0.8158768954253013</v>
+        <v>1.998547651818381</v>
       </c>
       <c r="O13">
-        <v>1.662447626712975</v>
+        <v>3.58569328304452</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.514213335440814</v>
+        <v>0.7577194190014609</v>
       </c>
       <c r="C14">
-        <v>0.1339464334735609</v>
+        <v>0.2438508338488035</v>
       </c>
       <c r="D14">
-        <v>0.1633384825607891</v>
+        <v>0.2151246652917393</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.748449765168175</v>
+        <v>1.513464832408161</v>
       </c>
       <c r="G14">
-        <v>0.451032484547369</v>
+        <v>0.8565599839862443</v>
       </c>
       <c r="H14">
-        <v>0.3597489223058972</v>
+        <v>0.9237826872897443</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08434577354385198</v>
+        <v>0.2430235189717749</v>
       </c>
       <c r="K14">
-        <v>1.209774442160352</v>
+        <v>0.401893173158669</v>
       </c>
       <c r="L14">
-        <v>0.2428137951316955</v>
+        <v>0.3232901741442618</v>
       </c>
       <c r="M14">
-        <v>0.3297895419639971</v>
+        <v>0.2344258495634222</v>
       </c>
       <c r="N14">
-        <v>0.8229534993932663</v>
+        <v>2.001629586325743</v>
       </c>
       <c r="O14">
-        <v>1.657379980770173</v>
+        <v>3.588164424967488</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.497763229507825</v>
+        <v>0.7531187465585276</v>
       </c>
       <c r="C15">
-        <v>0.1339867637865026</v>
+        <v>0.2438902150348881</v>
       </c>
       <c r="D15">
-        <v>0.1620369029559896</v>
+        <v>0.2148625177023575</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7461663038813242</v>
+        <v>1.513811558062997</v>
       </c>
       <c r="G15">
-        <v>0.4496577163924513</v>
+        <v>0.8568221276210437</v>
       </c>
       <c r="H15">
-        <v>0.3597072584850167</v>
+        <v>0.9242661636300937</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08452678900930621</v>
+        <v>0.2431762205837522</v>
       </c>
       <c r="K15">
-        <v>1.196691408336733</v>
+        <v>0.3979627105784687</v>
       </c>
       <c r="L15">
-        <v>0.2408690037059245</v>
+        <v>0.3229014421161622</v>
       </c>
       <c r="M15">
-        <v>0.326372414641753</v>
+        <v>0.2335354523047073</v>
       </c>
       <c r="N15">
-        <v>0.827311835953358</v>
+        <v>2.003528318273167</v>
       </c>
       <c r="O15">
-        <v>1.654341587877866</v>
+        <v>3.589707367251151</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.403658054055256</v>
+        <v>0.7268018138202592</v>
       </c>
       <c r="C16">
-        <v>0.134232888788496</v>
+        <v>0.2441243880380739</v>
       </c>
       <c r="D16">
-        <v>0.15461446291242</v>
+        <v>0.2133810651613999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7334710241585185</v>
+        <v>1.515982765234341</v>
       </c>
       <c r="G16">
-        <v>0.4420762837797128</v>
+        <v>0.8584474626042322</v>
       </c>
       <c r="H16">
-        <v>0.3596401287453119</v>
+        <v>0.9271279177924185</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08559372865082082</v>
+        <v>0.2440698309313909</v>
       </c>
       <c r="K16">
-        <v>1.121783471257572</v>
+        <v>0.3754340876757851</v>
       </c>
       <c r="L16">
-        <v>0.2297824388614913</v>
+        <v>0.3207046843723305</v>
       </c>
       <c r="M16">
-        <v>0.3068400657442183</v>
+        <v>0.2284531815376667</v>
       </c>
       <c r="N16">
-        <v>0.8526463608428276</v>
+        <v>2.014577166074616</v>
       </c>
       <c r="O16">
-        <v>1.637915899836372</v>
+        <v>3.598998650831362</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.34606466492923</v>
+        <v>0.710700381618409</v>
       </c>
       <c r="C17">
-        <v>0.1343971895320593</v>
+        <v>0.2442756462144899</v>
       </c>
       <c r="D17">
-        <v>0.1500925946569964</v>
+        <v>0.2124908829301688</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7260224929666492</v>
+        <v>1.517479326814637</v>
       </c>
       <c r="G17">
-        <v>0.4376829106242894</v>
+        <v>0.8595544527644989</v>
       </c>
       <c r="H17">
-        <v>0.3597489266321361</v>
+        <v>0.9289649251247027</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0862743496774101</v>
+        <v>0.2446345928112041</v>
       </c>
       <c r="K17">
-        <v>1.075882228982863</v>
+        <v>0.3616097443673425</v>
       </c>
       <c r="L17">
-        <v>0.2230315516768115</v>
+        <v>0.3193847246592156</v>
       </c>
       <c r="M17">
-        <v>0.2948999604627502</v>
+        <v>0.2253535693002249</v>
       </c>
       <c r="N17">
-        <v>0.8685032086977351</v>
+        <v>2.021505198300716</v>
       </c>
       <c r="O17">
-        <v>1.628697170012856</v>
+        <v>3.605099768344729</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.312985360990552</v>
+        <v>0.7014553700964541</v>
       </c>
       <c r="C18">
-        <v>0.1344965513697005</v>
+        <v>0.2443654470975396</v>
       </c>
       <c r="D18">
-        <v>0.1475029797367711</v>
+        <v>0.211985752820226</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7218597339628445</v>
+        <v>1.518400667538621</v>
       </c>
       <c r="G18">
-        <v>0.4352478054060214</v>
+        <v>0.8602315754245211</v>
       </c>
       <c r="H18">
-        <v>0.359865392206757</v>
+        <v>0.9300514750016475</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08667528142060021</v>
+        <v>0.2449655221489095</v>
       </c>
       <c r="K18">
-        <v>1.049497881441738</v>
+        <v>0.3536571466359533</v>
       </c>
       <c r="L18">
-        <v>0.2191665010456632</v>
+        <v>0.318635730660958</v>
       </c>
       <c r="M18">
-        <v>0.2880470795115286</v>
+        <v>0.2235774966141122</v>
       </c>
       <c r="N18">
-        <v>0.8777374046470232</v>
+        <v>2.025545126377384</v>
       </c>
       <c r="O18">
-        <v>1.623701525259548</v>
+        <v>3.608756531313958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.301793007162104</v>
+        <v>0.6983279578168435</v>
       </c>
       <c r="C19">
-        <v>0.1345310254556153</v>
+        <v>0.2443963339973081</v>
       </c>
       <c r="D19">
-        <v>0.1466280789435501</v>
+        <v>0.2118159086680009</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7204708396517674</v>
+        <v>1.518723025175497</v>
       </c>
       <c r="G19">
-        <v>0.4344388336889011</v>
+        <v>0.8604677803990768</v>
       </c>
       <c r="H19">
-        <v>0.3599139665735152</v>
+        <v>0.930424509469475</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08681264201606531</v>
+        <v>0.2450786163385175</v>
       </c>
       <c r="K19">
-        <v>1.040567263115321</v>
+        <v>0.3509643446321888</v>
       </c>
       <c r="L19">
-        <v>0.2178608742450194</v>
+        <v>0.3183838918244675</v>
       </c>
       <c r="M19">
-        <v>0.2857292698613279</v>
+        <v>0.2229773121511514</v>
       </c>
       <c r="N19">
-        <v>0.8808832981909429</v>
+        <v>2.026922442423796</v>
       </c>
       <c r="O19">
-        <v>1.622061971739953</v>
+        <v>3.610020003265163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.352190649227794</v>
+        <v>0.7124127451912727</v>
       </c>
       <c r="C20">
-        <v>0.1343791957110057</v>
+        <v>0.2442592547928868</v>
       </c>
       <c r="D20">
-        <v>0.1505727836774042</v>
+        <v>0.2125849330275855</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7268027585539727</v>
+        <v>1.517313749311775</v>
       </c>
       <c r="G20">
-        <v>0.4381410243501591</v>
+        <v>0.8594324298913847</v>
       </c>
       <c r="H20">
-        <v>0.3597317404277334</v>
+        <v>0.9287662733884616</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08620091478458924</v>
+        <v>0.2445738424798982</v>
       </c>
       <c r="K20">
-        <v>1.080766699156413</v>
+        <v>0.3630814977189232</v>
       </c>
       <c r="L20">
-        <v>0.2237483306087853</v>
+        <v>0.3195241806223095</v>
       </c>
       <c r="M20">
-        <v>0.2961694602320364</v>
+        <v>0.2256828317575952</v>
       </c>
       <c r="N20">
-        <v>0.8668034027710387</v>
+        <v>2.020761994316945</v>
       </c>
       <c r="O20">
-        <v>1.629646584838042</v>
+        <v>3.604435024519404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.522104633971594</v>
+        <v>0.7599264007549777</v>
       </c>
       <c r="C21">
-        <v>0.1339273606444848</v>
+        <v>0.2438320994962311</v>
       </c>
       <c r="D21">
-        <v>0.1639632820325829</v>
+        <v>0.2152507392671339</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7495517755229955</v>
+        <v>1.513301825032833</v>
       </c>
       <c r="G21">
-        <v>0.4516970775480189</v>
+        <v>0.8564364556280282</v>
       </c>
       <c r="H21">
-        <v>0.3597719826344417</v>
+        <v>0.9235524584112653</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08425950035591967</v>
+        <v>0.2429506220892961</v>
       </c>
       <c r="K21">
-        <v>1.216049362972115</v>
+        <v>0.4037778466355348</v>
       </c>
       <c r="L21">
-        <v>0.2437474289984749</v>
+        <v>0.323477127054872</v>
       </c>
       <c r="M21">
-        <v>0.3314290589456448</v>
+        <v>0.2348531752427689</v>
       </c>
       <c r="N21">
-        <v>0.8208699760577449</v>
+        <v>2.000722063860506</v>
       </c>
       <c r="O21">
-        <v>1.658854732067823</v>
+        <v>3.587432485963035</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.633646613081396</v>
+        <v>0.7911174854487228</v>
       </c>
       <c r="C22">
-        <v>0.1336760240903416</v>
+        <v>0.2435777039680929</v>
       </c>
       <c r="D22">
-        <v>0.1728225307305564</v>
+        <v>0.2170536463499104</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7655739429675208</v>
+        <v>1.511217586759699</v>
       </c>
       <c r="G22">
-        <v>0.4614356855525159</v>
+        <v>0.8548377725163334</v>
       </c>
       <c r="H22">
-        <v>0.360304800932667</v>
+        <v>0.9204109566003069</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0830777127072011</v>
+        <v>0.2419438612797045</v>
       </c>
       <c r="K22">
-        <v>1.304666633765038</v>
+        <v>0.4303607054997656</v>
       </c>
       <c r="L22">
-        <v>0.2569908128013481</v>
+        <v>0.3261507005439341</v>
       </c>
       <c r="M22">
-        <v>0.3546222984376826</v>
+        <v>0.2409053906077361</v>
       </c>
       <c r="N22">
-        <v>0.7919057386253812</v>
+        <v>1.988115298293836</v>
       </c>
       <c r="O22">
-        <v>1.680860642152453</v>
+        <v>3.577631898303309</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.574065604338074</v>
+        <v>0.7744578293361428</v>
       </c>
       <c r="C23">
-        <v>0.1338061100472103</v>
+        <v>0.2437112208702175</v>
       </c>
       <c r="D23">
-        <v>0.1680839377348349</v>
+        <v>0.2160858810713506</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7569133325254427</v>
+        <v>1.512280847965435</v>
       </c>
       <c r="G23">
-        <v>0.4561545254671273</v>
+        <v>0.8556581625395836</v>
       </c>
       <c r="H23">
-        <v>0.3599727438170106</v>
+        <v>0.9220633270009273</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08370034963764894</v>
+        <v>0.2424762449558813</v>
       </c>
       <c r="K23">
-        <v>1.257348788337652</v>
+        <v>0.4161744525205791</v>
       </c>
       <c r="L23">
-        <v>0.2499060757146339</v>
+        <v>0.3247155611412182</v>
       </c>
       <c r="M23">
-        <v>0.3422291030705793</v>
+        <v>0.2376698799764441</v>
       </c>
       <c r="N23">
-        <v>0.8072657346176388</v>
+        <v>1.994798897628677</v>
       </c>
       <c r="O23">
-        <v>1.668839510771221</v>
+        <v>3.582742768322191</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.349420993178597</v>
+        <v>0.7116385484433749</v>
       </c>
       <c r="C24">
-        <v>0.1343873154527131</v>
+        <v>0.2442666565040881</v>
       </c>
       <c r="D24">
-        <v>0.1503556589469781</v>
+        <v>0.2125423922657461</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7264496290571003</v>
+        <v>1.517388417039108</v>
       </c>
       <c r="G24">
-        <v>0.4379336292772535</v>
+        <v>0.8594874696525636</v>
       </c>
       <c r="H24">
-        <v>0.3597393426634596</v>
+        <v>0.9288559890438108</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08623408472369398</v>
+        <v>0.2446012882658142</v>
       </c>
       <c r="K24">
-        <v>1.078558415532058</v>
+        <v>0.3624161329327364</v>
       </c>
       <c r="L24">
-        <v>0.2234242247775171</v>
+        <v>0.3194611018336531</v>
       </c>
       <c r="M24">
-        <v>0.2955954833078138</v>
+        <v>0.2255339536988785</v>
       </c>
       <c r="N24">
-        <v>0.8675715183188917</v>
+        <v>2.021097819564593</v>
       </c>
       <c r="O24">
-        <v>1.629216408503396</v>
+        <v>3.604735090588719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.108858598424746</v>
+        <v>0.6444964171231504</v>
       </c>
       <c r="C25">
-        <v>0.1351997176842019</v>
+        <v>0.2449729806681837</v>
       </c>
       <c r="D25">
-        <v>0.1316586611767576</v>
+        <v>0.2089835124105264</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6981943623315132</v>
+        <v>1.525213866319106</v>
       </c>
       <c r="G25">
-        <v>0.4217591488677073</v>
+        <v>0.8651632766189934</v>
       </c>
       <c r="H25">
-        <v>0.3615339991487758</v>
+        <v>0.9373285135177483</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08932718931871975</v>
+        <v>0.2471265441890083</v>
       </c>
       <c r="K25">
-        <v>0.886320465935313</v>
+        <v>0.3043852340282172</v>
       </c>
       <c r="L25">
-        <v>0.1955357646256317</v>
+        <v>0.3141842094277578</v>
       </c>
       <c r="M25">
-        <v>0.2458483220021357</v>
+        <v>0.2127018053364687</v>
       </c>
       <c r="N25">
-        <v>0.9369479929486628</v>
+        <v>2.051572551655573</v>
       </c>
       <c r="O25">
-        <v>1.598106800917748</v>
+        <v>3.634100390025139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5956079201923501</v>
+        <v>0.9328260013688521</v>
       </c>
       <c r="C2">
-        <v>0.2455862192536173</v>
+        <v>0.1359541169618801</v>
       </c>
       <c r="D2">
-        <v>0.2065920950532956</v>
+        <v>0.1182167459467607</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.532975551870052</v>
+        <v>0.6809807602226314</v>
       </c>
       <c r="G2">
-        <v>0.8706740504681534</v>
+        <v>0.4125352167042493</v>
       </c>
       <c r="H2">
-        <v>0.9445565500898638</v>
+        <v>0.3644826226984463</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2491874490776933</v>
+        <v>0.09190050787961113</v>
       </c>
       <c r="K2">
-        <v>0.2616300493527461</v>
+        <v>0.7450168991666715</v>
       </c>
       <c r="L2">
-        <v>0.3106383837540747</v>
+        <v>0.1755109326658371</v>
       </c>
       <c r="M2">
-        <v>0.2034796534955134</v>
+        <v>0.2096006857776551</v>
       </c>
       <c r="N2">
-        <v>2.075828692543366</v>
+        <v>0.9915474056088325</v>
       </c>
       <c r="O2">
-        <v>3.660590144332687</v>
+        <v>1.584273145342408</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.562826514233393</v>
+        <v>0.8140184447937315</v>
       </c>
       <c r="C3">
-        <v>0.2460604446407544</v>
+        <v>0.1365613476590006</v>
       </c>
       <c r="D3">
-        <v>0.2051155706499586</v>
+        <v>0.109290216388267</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.539487355752811</v>
+        <v>0.6713825728864862</v>
       </c>
       <c r="G3">
-        <v>0.8752409111624928</v>
+        <v>0.4078159994982542</v>
       </c>
       <c r="H3">
-        <v>0.9500747939030347</v>
+        <v>0.3674342444847554</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2507104551491839</v>
+        <v>0.0938225663587513</v>
       </c>
       <c r="K3">
-        <v>0.2326434445962917</v>
+        <v>0.6492722282007151</v>
       </c>
       <c r="L3">
-        <v>0.3084489433906228</v>
+        <v>0.1622241281274626</v>
       </c>
       <c r="M3">
-        <v>0.1973728997168287</v>
+        <v>0.185228842542319</v>
       </c>
       <c r="N3">
-        <v>2.093403922165312</v>
+        <v>1.03064908606583</v>
       </c>
       <c r="O3">
-        <v>3.681587093869098</v>
+        <v>1.580124152655983</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5428751847376247</v>
+        <v>0.7412552271717345</v>
       </c>
       <c r="C4">
-        <v>0.246380711735668</v>
+        <v>0.1369810764082615</v>
       </c>
       <c r="D4">
-        <v>0.2042805767309446</v>
+        <v>0.1038937405532323</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.544104475233055</v>
+        <v>0.666455572659153</v>
       </c>
       <c r="G4">
-        <v>0.8784559800908625</v>
+        <v>0.4056294710513555</v>
       </c>
       <c r="H4">
-        <v>0.9537694961650374</v>
+        <v>0.369697563773876</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2517080791732909</v>
+        <v>0.0950885270439894</v>
       </c>
       <c r="K4">
-        <v>0.2148425740988671</v>
+        <v>0.5904540927797512</v>
       </c>
       <c r="L4">
-        <v>0.3072106460167063</v>
+        <v>0.1541959235844672</v>
       </c>
       <c r="M4">
-        <v>0.1936947871967689</v>
+        <v>0.1703465217074047</v>
       </c>
       <c r="N4">
-        <v>2.104756655322593</v>
+        <v>1.055663055677085</v>
       </c>
       <c r="O4">
-        <v>3.695983809126318</v>
+        <v>1.580019758148993</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5347899738532078</v>
+        <v>0.7116426305302923</v>
       </c>
       <c r="C5">
-        <v>0.2465185645101258</v>
+        <v>0.1371638473396537</v>
       </c>
       <c r="D5">
-        <v>0.2039584010170046</v>
+        <v>0.1017150733302188</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.546141844823403</v>
+        <v>0.6646832267209746</v>
       </c>
       <c r="G5">
-        <v>0.8798695882697345</v>
+        <v>0.4049109560756605</v>
       </c>
       <c r="H5">
-        <v>0.9553523021254762</v>
+        <v>0.3707305701797239</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2521303594931048</v>
+        <v>0.09562569878138305</v>
       </c>
       <c r="K5">
-        <v>0.2075883394501261</v>
+        <v>0.5664724308411593</v>
       </c>
       <c r="L5">
-        <v>0.3067328120792467</v>
+        <v>0.1509556544815425</v>
       </c>
       <c r="M5">
-        <v>0.192214057182948</v>
+        <v>0.1643007209189271</v>
       </c>
       <c r="N5">
-        <v>2.109524260890692</v>
+        <v>1.06610486069424</v>
       </c>
       <c r="O5">
-        <v>3.702229345567744</v>
+        <v>1.580572488673411</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5334501767434574</v>
+        <v>0.7067276240939577</v>
       </c>
       <c r="C6">
-        <v>0.2465418990290118</v>
+        <v>0.1371949029216282</v>
       </c>
       <c r="D6">
-        <v>0.2039059992040322</v>
+        <v>0.1013545192510676</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.546489568923178</v>
+        <v>0.6644029355116743</v>
       </c>
       <c r="G6">
-        <v>0.8801105671671579</v>
+        <v>0.4048018872292047</v>
       </c>
       <c r="H6">
-        <v>0.9556197911030466</v>
+        <v>0.3709087076549906</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2522014302745674</v>
+        <v>0.09571617272960786</v>
       </c>
       <c r="K6">
-        <v>0.2063837801976263</v>
+        <v>0.5624893770587818</v>
       </c>
       <c r="L6">
-        <v>0.3066550892510804</v>
+        <v>0.1504194606927882</v>
       </c>
       <c r="M6">
-        <v>0.1919692828976167</v>
+        <v>0.1632979094577536</v>
       </c>
       <c r="N6">
-        <v>2.110324453426021</v>
+        <v>1.067853592410747</v>
       </c>
       <c r="O6">
-        <v>3.703289301088304</v>
+        <v>1.580699679117274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5427659611291631</v>
+        <v>0.7408557131005011</v>
       </c>
       <c r="C7">
-        <v>0.24638254110668</v>
+        <v>0.1369834939132595</v>
       </c>
       <c r="D7">
-        <v>0.2042761583908828</v>
+        <v>0.1038642765486415</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.544131320534973</v>
+        <v>0.6664307266161273</v>
       </c>
       <c r="G7">
-        <v>0.8784746255511422</v>
+        <v>0.4056190905441568</v>
       </c>
       <c r="H7">
-        <v>0.9537905297638929</v>
+        <v>0.3697110506167292</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2517137104261913</v>
+        <v>0.09509568573923666</v>
       </c>
       <c r="K7">
-        <v>0.2147447412263404</v>
+        <v>0.5901307260733688</v>
       </c>
       <c r="L7">
-        <v>0.3072040931800188</v>
+        <v>0.1541520992807293</v>
       </c>
       <c r="M7">
-        <v>0.1936747439287991</v>
+        <v>0.1702649118230504</v>
       </c>
       <c r="N7">
-        <v>2.104820380784471</v>
+        <v>1.055802877391873</v>
       </c>
       <c r="O7">
-        <v>3.696066504454592</v>
+        <v>1.580024826862996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5842686583033014</v>
+        <v>0.8918180485685525</v>
       </c>
       <c r="C8">
-        <v>0.2457437100421167</v>
+        <v>0.1361537202452645</v>
       </c>
       <c r="D8">
-        <v>0.2060681807378657</v>
+        <v>0.1151208595462521</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.535092524400369</v>
+        <v>0.6774661067990664</v>
       </c>
       <c r="G8">
-        <v>0.8721634562723608</v>
+        <v>0.4107565741197945</v>
       </c>
       <c r="H8">
-        <v>0.9463957019019915</v>
+        <v>0.3654050594813043</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2496996271776268</v>
+        <v>0.09254524340989256</v>
       </c>
       <c r="K8">
-        <v>0.2516363853738994</v>
+        <v>0.7120072775315265</v>
       </c>
       <c r="L8">
-        <v>0.3098615298265415</v>
+        <v>0.1709018142512306</v>
       </c>
       <c r="M8">
-        <v>0.2013593082955296</v>
+        <v>0.2011791340533513</v>
       </c>
       <c r="N8">
-        <v>2.081772152911479</v>
+        <v>1.004818302496733</v>
       </c>
       <c r="O8">
-        <v>3.667517894144169</v>
+        <v>1.582323788024937</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6670293794311135</v>
+        <v>1.189696219468686</v>
       </c>
       <c r="C9">
-        <v>0.244720646752107</v>
+        <v>0.1349015802869928</v>
       </c>
       <c r="D9">
-        <v>0.2101469313255677</v>
+        <v>0.137903676934684</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.522267735804775</v>
+        <v>0.7071305949356343</v>
       </c>
       <c r="G9">
-        <v>0.8630446920546717</v>
+        <v>0.4267706027250284</v>
       </c>
       <c r="H9">
-        <v>0.9343210875766488</v>
+        <v>0.3606681370526701</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2462446714123487</v>
+        <v>0.08823841706371738</v>
       </c>
       <c r="K9">
-        <v>0.3239380382256911</v>
+        <v>0.9510203463946709</v>
       </c>
       <c r="L9">
-        <v>0.3159092305918136</v>
+        <v>0.2048462684957641</v>
       </c>
       <c r="M9">
-        <v>0.2169894876123024</v>
+        <v>0.262540406207016</v>
       </c>
       <c r="N9">
-        <v>2.041025083479051</v>
+        <v>0.9130187826805081</v>
       </c>
       <c r="O9">
-        <v>3.623453433272132</v>
+        <v>1.607116880557768</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.728641263811113</v>
+        <v>1.410236464474707</v>
       </c>
       <c r="C10">
-        <v>0.2441075074170058</v>
+        <v>0.1342148017764089</v>
       </c>
       <c r="D10">
-        <v>0.2134835712189158</v>
+        <v>0.1551319885384288</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.515820197925315</v>
+        <v>0.7343376505209775</v>
       </c>
       <c r="G10">
-        <v>0.8583266214779286</v>
+        <v>0.442590245964837</v>
       </c>
       <c r="H10">
-        <v>0.9269223586865252</v>
+        <v>0.3596351043587731</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2440062128045462</v>
+        <v>0.08551735584021181</v>
       </c>
       <c r="K10">
-        <v>0.3770113655256182</v>
+        <v>1.127023575740367</v>
       </c>
       <c r="L10">
-        <v>0.3208566818385208</v>
+        <v>0.2305552299729783</v>
       </c>
       <c r="M10">
-        <v>0.2288077784641658</v>
+        <v>0.3082045721900641</v>
       </c>
       <c r="N10">
-        <v>2.013794095758238</v>
+        <v>0.8508525408622631</v>
       </c>
       <c r="O10">
-        <v>3.598322457527388</v>
+        <v>1.639009996976029</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7568394469179793</v>
+        <v>1.5110669123695</v>
       </c>
       <c r="C11">
-        <v>0.2438583319176857</v>
+        <v>0.1339540875531569</v>
       </c>
       <c r="D11">
-        <v>0.2150744543226324</v>
+        <v>0.1630894373043503</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.51353042439348</v>
+        <v>0.7480115623633239</v>
       </c>
       <c r="G11">
-        <v>0.8566096376803927</v>
+        <v>0.4507684175556932</v>
       </c>
       <c r="H11">
-        <v>0.9238747902720803</v>
+        <v>0.3597402817205051</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2430526485011413</v>
+        <v>0.08438027368843493</v>
       </c>
       <c r="K11">
-        <v>0.4011415679976267</v>
+        <v>1.207272293870744</v>
       </c>
       <c r="L11">
-        <v>0.3232157173516157</v>
+        <v>0.2424416614753824</v>
       </c>
       <c r="M11">
-        <v>0.2342555004340383</v>
+        <v>0.3291358838163276</v>
       </c>
       <c r="N11">
-        <v>2.001992032005631</v>
+        <v>0.8237855442920008</v>
       </c>
       <c r="O11">
-        <v>3.588457744848029</v>
+        <v>1.656795068284822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7675412521577982</v>
+        <v>1.549332896787519</v>
       </c>
       <c r="C12">
-        <v>0.2437682270160124</v>
+        <v>0.1338628945883613</v>
       </c>
       <c r="D12">
-        <v>0.2156872993926271</v>
+        <v>0.1661211461622401</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.512755618248327</v>
+        <v>0.7533867061995778</v>
       </c>
       <c r="G12">
-        <v>0.8560211117459176</v>
+        <v>0.4540153398071141</v>
       </c>
       <c r="H12">
-        <v>0.922766390740577</v>
+        <v>0.3598666742161356</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2427008390015715</v>
+        <v>0.08396458264430251</v>
       </c>
       <c r="K12">
-        <v>0.4102766995118259</v>
+        <v>1.237694770579935</v>
       </c>
       <c r="L12">
-        <v>0.324124499593097</v>
+        <v>0.2469722728823314</v>
       </c>
       <c r="M12">
-        <v>0.2363285474001913</v>
+        <v>0.3370874654647693</v>
       </c>
       <c r="N12">
-        <v>1.997606998556094</v>
+        <v>0.8137164775154737</v>
       </c>
       <c r="O12">
-        <v>3.584947235036594</v>
+        <v>1.66402795403647</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.765235382231964</v>
+        <v>1.54108772826703</v>
       </c>
       <c r="C13">
-        <v>0.2437874439822778</v>
+        <v>0.1338821979102534</v>
       </c>
       <c r="D13">
-        <v>0.2155548505800908</v>
+        <v>0.1654673769243118</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.512918385820292</v>
+        <v>0.7522201305182463</v>
       </c>
       <c r="G13">
-        <v>0.8561451202184287</v>
+        <v>0.4533092381771127</v>
       </c>
       <c r="H13">
-        <v>0.9230030757891967</v>
+        <v>0.359835539453627</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.242776194890336</v>
+        <v>0.08405343981999636</v>
       </c>
       <c r="K13">
-        <v>0.4083094035789543</v>
+        <v>1.23114110641356</v>
       </c>
       <c r="L13">
-        <v>0.3239280911554516</v>
+        <v>0.2459951810241847</v>
       </c>
       <c r="M13">
-        <v>0.2358816326098534</v>
+        <v>0.3353737802100767</v>
       </c>
       <c r="N13">
-        <v>1.998547651818381</v>
+        <v>0.8158768954252889</v>
       </c>
       <c r="O13">
-        <v>3.58569328304452</v>
+        <v>1.66244762671289</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7577194190014609</v>
+        <v>1.514213335440786</v>
       </c>
       <c r="C14">
-        <v>0.2438508338488035</v>
+        <v>0.1339464334733407</v>
       </c>
       <c r="D14">
-        <v>0.2151246652917393</v>
+        <v>0.1633384825606754</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.513464832408161</v>
+        <v>0.7484497651681536</v>
       </c>
       <c r="G14">
-        <v>0.8565599839862443</v>
+        <v>0.451032484547369</v>
       </c>
       <c r="H14">
-        <v>0.9237826872897443</v>
+        <v>0.3597489223060109</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2430235189717749</v>
+        <v>0.0843457735438804</v>
       </c>
       <c r="K14">
-        <v>0.401893173158669</v>
+        <v>1.209774442160295</v>
       </c>
       <c r="L14">
-        <v>0.3232901741442618</v>
+        <v>0.2428137951316813</v>
       </c>
       <c r="M14">
-        <v>0.2344258495634222</v>
+        <v>0.3297895419639971</v>
       </c>
       <c r="N14">
-        <v>2.001629586325743</v>
+        <v>0.8229534993932646</v>
       </c>
       <c r="O14">
-        <v>3.588164424967488</v>
+        <v>1.657379980770088</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7531187465585276</v>
+        <v>1.497763229507711</v>
       </c>
       <c r="C15">
-        <v>0.2438902150348881</v>
+        <v>0.1339867637868153</v>
       </c>
       <c r="D15">
-        <v>0.2148625177023575</v>
+        <v>0.1620369029559754</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.513811558062997</v>
+        <v>0.7461663038813242</v>
       </c>
       <c r="G15">
-        <v>0.8568221276210437</v>
+        <v>0.4496577163924798</v>
       </c>
       <c r="H15">
-        <v>0.9242661636300937</v>
+        <v>0.3597072584850167</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2431762205837522</v>
+        <v>0.08452678900934529</v>
       </c>
       <c r="K15">
-        <v>0.3979627105784687</v>
+        <v>1.196691408336733</v>
       </c>
       <c r="L15">
-        <v>0.3229014421161622</v>
+        <v>0.2408690037059245</v>
       </c>
       <c r="M15">
-        <v>0.2335354523047073</v>
+        <v>0.3263724146417673</v>
       </c>
       <c r="N15">
-        <v>2.003528318273167</v>
+        <v>0.8273118359533687</v>
       </c>
       <c r="O15">
-        <v>3.589707367251151</v>
+        <v>1.654341587877894</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7268018138202592</v>
+        <v>1.403658054055256</v>
       </c>
       <c r="C16">
-        <v>0.2441243880380739</v>
+        <v>0.1342328887882545</v>
       </c>
       <c r="D16">
-        <v>0.2133810651613999</v>
+        <v>0.15461446291242</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.515982765234341</v>
+        <v>0.7334710241585114</v>
       </c>
       <c r="G16">
-        <v>0.8584474626042322</v>
+        <v>0.4420762837796985</v>
       </c>
       <c r="H16">
-        <v>0.9271279177924185</v>
+        <v>0.3596401287453119</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2440698309313909</v>
+        <v>0.08559372865087767</v>
       </c>
       <c r="K16">
-        <v>0.3754340876757851</v>
+        <v>1.121783471257515</v>
       </c>
       <c r="L16">
-        <v>0.3207046843723305</v>
+        <v>0.2297824388615197</v>
       </c>
       <c r="M16">
-        <v>0.2284531815376667</v>
+        <v>0.3068400657442325</v>
       </c>
       <c r="N16">
-        <v>2.014577166074616</v>
+        <v>0.8526463608428259</v>
       </c>
       <c r="O16">
-        <v>3.598998650831362</v>
+        <v>1.637915899836457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.710700381618409</v>
+        <v>1.34606466492906</v>
       </c>
       <c r="C17">
-        <v>0.2442756462144899</v>
+        <v>0.1343971895321374</v>
       </c>
       <c r="D17">
-        <v>0.2124908829301688</v>
+        <v>0.150092594656968</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.517479326814637</v>
+        <v>0.7260224929666208</v>
       </c>
       <c r="G17">
-        <v>0.8595544527644989</v>
+        <v>0.4376829106244173</v>
       </c>
       <c r="H17">
-        <v>0.9289649251247027</v>
+        <v>0.3597489266321219</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2446345928112041</v>
+        <v>0.08627434967739234</v>
       </c>
       <c r="K17">
-        <v>0.3616097443673425</v>
+        <v>1.075882228982977</v>
       </c>
       <c r="L17">
-        <v>0.3193847246592156</v>
+        <v>0.2230315516768258</v>
       </c>
       <c r="M17">
-        <v>0.2253535693002249</v>
+        <v>0.2948999604627431</v>
       </c>
       <c r="N17">
-        <v>2.021505198300716</v>
+        <v>0.8685032086977245</v>
       </c>
       <c r="O17">
-        <v>3.605099768344729</v>
+        <v>1.628697170012856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7014553700964541</v>
+        <v>1.312985360990467</v>
       </c>
       <c r="C18">
-        <v>0.2443654470975396</v>
+        <v>0.1344965513698639</v>
       </c>
       <c r="D18">
-        <v>0.211985752820226</v>
+        <v>0.1475029797368279</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.518400667538621</v>
+        <v>0.7218597339628161</v>
       </c>
       <c r="G18">
-        <v>0.8602315754245211</v>
+        <v>0.4352478054059645</v>
       </c>
       <c r="H18">
-        <v>0.9300514750016475</v>
+        <v>0.359865392206757</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2449655221489095</v>
+        <v>0.08667528142066949</v>
       </c>
       <c r="K18">
-        <v>0.3536571466359533</v>
+        <v>1.049497881441766</v>
       </c>
       <c r="L18">
-        <v>0.318635730660958</v>
+        <v>0.2191665010457058</v>
       </c>
       <c r="M18">
-        <v>0.2235774966141122</v>
+        <v>0.2880470795115357</v>
       </c>
       <c r="N18">
-        <v>2.025545126377384</v>
+        <v>0.8777374046469983</v>
       </c>
       <c r="O18">
-        <v>3.608756531313958</v>
+        <v>1.623701525259577</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6983279578168435</v>
+        <v>1.301793007162246</v>
       </c>
       <c r="C19">
-        <v>0.2443963339973081</v>
+        <v>0.1345310254558498</v>
       </c>
       <c r="D19">
-        <v>0.2118159086680009</v>
+        <v>0.1466280789435928</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.518723025175497</v>
+        <v>0.7204708396517532</v>
       </c>
       <c r="G19">
-        <v>0.8604677803990768</v>
+        <v>0.4344388336888869</v>
       </c>
       <c r="H19">
-        <v>0.930424509469475</v>
+        <v>0.3599139665734867</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2450786163385175</v>
+        <v>0.08681264201607064</v>
       </c>
       <c r="K19">
-        <v>0.3509643446321888</v>
+        <v>1.040567263115236</v>
       </c>
       <c r="L19">
-        <v>0.3183838918244675</v>
+        <v>0.2178608742450905</v>
       </c>
       <c r="M19">
-        <v>0.2229773121511514</v>
+        <v>0.2857292698613065</v>
       </c>
       <c r="N19">
-        <v>2.026922442423796</v>
+        <v>0.8808832981908576</v>
       </c>
       <c r="O19">
-        <v>3.610020003265163</v>
+        <v>1.622061971739925</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7124127451912727</v>
+        <v>1.352190649227737</v>
       </c>
       <c r="C20">
-        <v>0.2442592547928868</v>
+        <v>0.1343791957110057</v>
       </c>
       <c r="D20">
-        <v>0.2125849330275855</v>
+        <v>0.1505727836773758</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.517313749311775</v>
+        <v>0.7268027585539656</v>
       </c>
       <c r="G20">
-        <v>0.8594324298913847</v>
+        <v>0.438141024350216</v>
       </c>
       <c r="H20">
-        <v>0.9287662733884616</v>
+        <v>0.3597317404277334</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2445738424798982</v>
+        <v>0.0862009147845928</v>
       </c>
       <c r="K20">
-        <v>0.3630814977189232</v>
+        <v>1.080766699156413</v>
       </c>
       <c r="L20">
-        <v>0.3195241806223095</v>
+        <v>0.2237483306087</v>
       </c>
       <c r="M20">
-        <v>0.2256828317575952</v>
+        <v>0.2961694602320364</v>
       </c>
       <c r="N20">
-        <v>2.020761994316945</v>
+        <v>0.866803402771092</v>
       </c>
       <c r="O20">
-        <v>3.604435024519404</v>
+        <v>1.629646584838042</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7599264007549777</v>
+        <v>1.522104633971594</v>
       </c>
       <c r="C21">
-        <v>0.2438320994962311</v>
+        <v>0.1339273606446483</v>
       </c>
       <c r="D21">
-        <v>0.2152507392671339</v>
+        <v>0.1639632820323129</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.513301825032833</v>
+        <v>0.7495517755230097</v>
       </c>
       <c r="G21">
-        <v>0.8564364556280282</v>
+        <v>0.4516970775480331</v>
       </c>
       <c r="H21">
-        <v>0.9235524584112653</v>
+        <v>0.3597719826343138</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2429506220892961</v>
+        <v>0.08425950035596941</v>
       </c>
       <c r="K21">
-        <v>0.4037778466355348</v>
+        <v>1.216049362972115</v>
       </c>
       <c r="L21">
-        <v>0.323477127054872</v>
+        <v>0.2437474289985175</v>
       </c>
       <c r="M21">
-        <v>0.2348531752427689</v>
+        <v>0.3314290589456235</v>
       </c>
       <c r="N21">
-        <v>2.000722063860506</v>
+        <v>0.8208699760577449</v>
       </c>
       <c r="O21">
-        <v>3.587432485963035</v>
+        <v>1.658854732067795</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7911174854487228</v>
+        <v>1.633646613081538</v>
       </c>
       <c r="C22">
-        <v>0.2435777039680929</v>
+        <v>0.1336760240901</v>
       </c>
       <c r="D22">
-        <v>0.2170536463499104</v>
+        <v>0.1728225307305138</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.511217586759699</v>
+        <v>0.765573942967535</v>
       </c>
       <c r="G22">
-        <v>0.8548377725163334</v>
+        <v>0.4614356855525585</v>
       </c>
       <c r="H22">
-        <v>0.9204109566003069</v>
+        <v>0.3603048009327665</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2419438612797045</v>
+        <v>0.08307771270723308</v>
       </c>
       <c r="K22">
-        <v>0.4303607054997656</v>
+        <v>1.304666633764867</v>
       </c>
       <c r="L22">
-        <v>0.3261507005439341</v>
+        <v>0.2569908128014191</v>
       </c>
       <c r="M22">
-        <v>0.2409053906077361</v>
+        <v>0.3546222984376826</v>
       </c>
       <c r="N22">
-        <v>1.988115298293836</v>
+        <v>0.7919057386253794</v>
       </c>
       <c r="O22">
-        <v>3.577631898303309</v>
+        <v>1.680860642152396</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7744578293361428</v>
+        <v>1.57406560433796</v>
       </c>
       <c r="C23">
-        <v>0.2437112208702175</v>
+        <v>0.1338061100472032</v>
       </c>
       <c r="D23">
-        <v>0.2160858810713506</v>
+        <v>0.1680839377348917</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.512280847965435</v>
+        <v>0.7569133325254356</v>
       </c>
       <c r="G23">
-        <v>0.8556581625395836</v>
+        <v>0.4561545254671273</v>
       </c>
       <c r="H23">
-        <v>0.9220633270009273</v>
+        <v>0.3599727438170106</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2424762449558813</v>
+        <v>0.08370034963759565</v>
       </c>
       <c r="K23">
-        <v>0.4161744525205791</v>
+        <v>1.257348788337652</v>
       </c>
       <c r="L23">
-        <v>0.3247155611412182</v>
+        <v>0.2499060757146196</v>
       </c>
       <c r="M23">
-        <v>0.2376698799764441</v>
+        <v>0.3422291030705864</v>
       </c>
       <c r="N23">
-        <v>1.994798897628677</v>
+        <v>0.80726573461763</v>
       </c>
       <c r="O23">
-        <v>3.582742768322191</v>
+        <v>1.668839510771221</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7116385484433749</v>
+        <v>1.349420993178512</v>
       </c>
       <c r="C24">
-        <v>0.2442666565040881</v>
+        <v>0.1343873154528126</v>
       </c>
       <c r="D24">
-        <v>0.2125423922657461</v>
+        <v>0.1503556589468786</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.517388417039108</v>
+        <v>0.7264496290570861</v>
       </c>
       <c r="G24">
-        <v>0.8594874696525636</v>
+        <v>0.4379336292773388</v>
       </c>
       <c r="H24">
-        <v>0.9288559890438108</v>
+        <v>0.3597393426634596</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2446012882658142</v>
+        <v>0.08623408472379523</v>
       </c>
       <c r="K24">
-        <v>0.3624161329327364</v>
+        <v>1.0785584155322</v>
       </c>
       <c r="L24">
-        <v>0.3194611018336531</v>
+        <v>0.2234242247774603</v>
       </c>
       <c r="M24">
-        <v>0.2255339536988785</v>
+        <v>0.2955954833078067</v>
       </c>
       <c r="N24">
-        <v>2.021097819564593</v>
+        <v>0.8675715183188846</v>
       </c>
       <c r="O24">
-        <v>3.604735090588719</v>
+        <v>1.629216408503453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6444964171231504</v>
+        <v>1.108858598424774</v>
       </c>
       <c r="C25">
-        <v>0.2449729806681837</v>
+        <v>0.135199717683971</v>
       </c>
       <c r="D25">
-        <v>0.2089835124105264</v>
+        <v>0.1316586611768145</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.525213866319106</v>
+        <v>0.698194362331499</v>
       </c>
       <c r="G25">
-        <v>0.8651632766189934</v>
+        <v>0.4217591488677357</v>
       </c>
       <c r="H25">
-        <v>0.9373285135177483</v>
+        <v>0.3615339991487616</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2471265441890083</v>
+        <v>0.08932718931877659</v>
       </c>
       <c r="K25">
-        <v>0.3043852340282172</v>
+        <v>0.8863204659353698</v>
       </c>
       <c r="L25">
-        <v>0.3141842094277578</v>
+        <v>0.1955357646257028</v>
       </c>
       <c r="M25">
-        <v>0.2127018053364687</v>
+        <v>0.245848322002125</v>
       </c>
       <c r="N25">
-        <v>2.051572551655573</v>
+        <v>0.9369479929486388</v>
       </c>
       <c r="O25">
-        <v>3.634100390025139</v>
+        <v>1.598106800917776</v>
       </c>
     </row>
   </sheetData>
